--- a/public/data/soil/soil_table_guinea.xlsx
+++ b/public/data/soil/soil_table_guinea.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -716,25 +716,25 @@
         <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>152331.4</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>131.6</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2668.9</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>153.567</v>
+        <v>179.937</v>
       </c>
       <c r="I2" t="n">
-        <v>0.472</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.57</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -751,28 +751,28 @@
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>276953.9</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>34316.7</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2305.1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>259.116</v>
+        <v>313.398</v>
       </c>
       <c r="I3" t="n">
-        <v>0.147</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>28.54</v>
+        <v>5.838</v>
       </c>
       <c r="K3" t="n">
-        <v>2.031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -786,25 +786,25 @@
         <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>45988.4</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2786.6</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>192.4</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>53.098</v>
+        <v>48.902</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.575</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -821,28 +821,28 @@
         <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>202114.2</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>21323.3</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>21153.5</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>12192.1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>149.023</v>
+        <v>171.733</v>
       </c>
       <c r="I5" t="n">
-        <v>7.457</v>
+        <v>5.753</v>
       </c>
       <c r="J5" t="n">
-        <v>13.725</v>
+        <v>1.537</v>
       </c>
       <c r="K5" t="n">
-        <v>5.197</v>
+        <v>1.795</v>
       </c>
     </row>
     <row r="6">
@@ -856,28 +856,28 @@
         <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>20640.9</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>48140.6</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>7639.8</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>54923.3</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>13.204</v>
+        <v>11.646</v>
       </c>
       <c r="I6" t="n">
-        <v>30.735</v>
+        <v>52.688</v>
       </c>
       <c r="J6" t="n">
-        <v>5.989</v>
+        <v>6.792</v>
       </c>
       <c r="K6" t="n">
-        <v>51.593</v>
+        <v>38.721</v>
       </c>
     </row>
     <row r="7">
@@ -891,19 +891,19 @@
         <v>35</v>
       </c>
       <c r="D7" t="n">
-        <v>9279.3</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>66.1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2946.3</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1190</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>7.505</v>
+        <v>9.09</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -926,28 +926,28 @@
         <v>37</v>
       </c>
       <c r="D8" t="n">
-        <v>73496.6</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>54286.4</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2226.2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>12088.7</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>72.256</v>
+        <v>82.252</v>
       </c>
       <c r="I8" t="n">
-        <v>54.996</v>
+        <v>59.493</v>
       </c>
       <c r="J8" t="n">
-        <v>1.99</v>
+        <v>0.99</v>
       </c>
       <c r="K8" t="n">
-        <v>13.411</v>
+        <v>1.645</v>
       </c>
     </row>
     <row r="9">
@@ -961,28 +961,28 @@
         <v>38</v>
       </c>
       <c r="D9" t="n">
-        <v>28349.4</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>94644.6</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>12250.9</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>117575.5</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>25.799</v>
+        <v>26.819</v>
       </c>
       <c r="I9" t="n">
-        <v>73.969</v>
+        <v>80.902</v>
       </c>
       <c r="J9" t="n">
-        <v>7.929</v>
+        <v>2.011</v>
       </c>
       <c r="K9" t="n">
-        <v>72.747</v>
+        <v>80.006</v>
       </c>
     </row>
     <row r="10">
@@ -996,28 +996,28 @@
         <v>36</v>
       </c>
       <c r="D10" t="n">
-        <v>187210.8</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18956.4</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>53716.9</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>10973.2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>158.388</v>
+        <v>179.997</v>
       </c>
       <c r="I10" t="n">
-        <v>9.483</v>
+        <v>0.746</v>
       </c>
       <c r="J10" t="n">
-        <v>58.736</v>
+        <v>48.82</v>
       </c>
       <c r="K10" t="n">
-        <v>4.809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1031,25 +1031,25 @@
         <v>39</v>
       </c>
       <c r="D11" t="n">
-        <v>133057.5</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7408.9</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>170.211</v>
+        <v>185.073</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6.071</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1066,28 +1066,28 @@
         <v>40</v>
       </c>
       <c r="D12" t="n">
-        <v>41132.9</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1964.3</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>277273.5</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>142871</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>29.759</v>
+        <v>23.423</v>
       </c>
       <c r="I12" t="n">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>127.644</v>
+        <v>150.526</v>
       </c>
       <c r="K12" t="n">
-        <v>116.006</v>
+        <v>86.298</v>
       </c>
     </row>
     <row r="13">
@@ -1101,25 +1101,25 @@
         <v>41</v>
       </c>
       <c r="D13" t="n">
-        <v>87179</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>122713.1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>68.206</v>
+        <v>70.821</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>86.349</v>
+        <v>83.503</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1136,28 +1136,28 @@
         <v>42</v>
       </c>
       <c r="D14" t="n">
-        <v>81070.3</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>83690.6</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>62522.5</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>167789.3</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>44.308</v>
+        <v>44.114</v>
       </c>
       <c r="I14" t="n">
-        <v>44.381</v>
+        <v>52.298</v>
       </c>
       <c r="J14" t="n">
-        <v>38.712</v>
+        <v>51.088</v>
       </c>
       <c r="K14" t="n">
-        <v>135.405</v>
+        <v>128.23</v>
       </c>
     </row>
     <row r="15">
@@ -1171,28 +1171,28 @@
         <v>43</v>
       </c>
       <c r="D15" t="n">
-        <v>832</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1283.1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>34087.9</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>340947.9</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.253</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>9.821</v>
+        <v>7.614</v>
       </c>
       <c r="K15" t="n">
-        <v>313.371</v>
+        <v>339.634</v>
       </c>
     </row>
     <row r="16">
@@ -1206,28 +1206,28 @@
         <v>44</v>
       </c>
       <c r="D16" t="n">
-        <v>3058.1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>3514.5</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>17828.9</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>493565.7</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>3.675</v>
+        <v>1.264</v>
       </c>
       <c r="I16" t="n">
-        <v>2.631</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>19.523</v>
+        <v>3.881</v>
       </c>
       <c r="K16" t="n">
-        <v>631.962</v>
+        <v>661.133</v>
       </c>
     </row>
     <row r="17">
@@ -1241,25 +1241,25 @@
         <v>46</v>
       </c>
       <c r="D17" t="n">
-        <v>57805.6</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2693.4</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>156.4</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>41.031</v>
+        <v>48.131</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.611</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1276,28 +1276,28 @@
         <v>47</v>
       </c>
       <c r="D18" t="n">
-        <v>105433.5</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>25.5</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>10232.8</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>86.4</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>127.565</v>
+        <v>147.218</v>
       </c>
       <c r="I18" t="n">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>17.919</v>
+        <v>2.414</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1311,28 +1311,28 @@
         <v>48</v>
       </c>
       <c r="D19" t="n">
-        <v>159803.8</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>5089.9</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>145.3</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>168.066</v>
+        <v>188.795</v>
       </c>
       <c r="I19" t="n">
-        <v>0.352</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>7.924</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1346,28 +1346,28 @@
         <v>45</v>
       </c>
       <c r="D20" t="n">
-        <v>260180.1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>16217.6</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>453.9</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>282.531</v>
+        <v>288.719</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>17.489</v>
+        <v>4.938</v>
       </c>
       <c r="K20" t="n">
-        <v>0.456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1381,28 +1381,28 @@
         <v>49</v>
       </c>
       <c r="D21" t="n">
-        <v>183551</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>5444.6</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>153.7</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>237.69</v>
+        <v>250.843</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>6.043</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1416,28 +1416,28 @@
         <v>51</v>
       </c>
       <c r="D22" t="n">
-        <v>36807.4</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>24986.8</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>3510.4</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>26936.1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>43.916</v>
+        <v>49.877</v>
       </c>
       <c r="I22" t="n">
-        <v>22.224</v>
+        <v>25.407</v>
       </c>
       <c r="J22" t="n">
-        <v>2.217</v>
+        <v>1.205</v>
       </c>
       <c r="K22" t="n">
-        <v>16.429</v>
+        <v>9.383</v>
       </c>
     </row>
     <row r="23">
@@ -1451,28 +1451,28 @@
         <v>50</v>
       </c>
       <c r="D23" t="n">
-        <v>74683.1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>25051.3</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>43.6</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>737.4</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>98.734</v>
+        <v>127.074</v>
       </c>
       <c r="I23" t="n">
-        <v>41.532</v>
+        <v>24.705</v>
       </c>
       <c r="J23" t="n">
-        <v>0.065</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1486,28 +1486,28 @@
         <v>52</v>
       </c>
       <c r="D24" t="n">
-        <v>77585.4</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1138.8</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>662.4</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>360.2</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>129.145</v>
+        <v>145.481</v>
       </c>
       <c r="I24" t="n">
-        <v>2.492</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.513</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1.021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1521,28 +1521,28 @@
         <v>53</v>
       </c>
       <c r="D25" t="n">
-        <v>99769.1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>23161.4</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>32736.3</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>48498.4</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>193.681</v>
+        <v>206.383</v>
       </c>
       <c r="I25" t="n">
-        <v>30.142</v>
+        <v>18.125</v>
       </c>
       <c r="J25" t="n">
-        <v>14.239</v>
+        <v>17.717</v>
       </c>
       <c r="K25" t="n">
-        <v>18.78</v>
+        <v>12.972</v>
       </c>
     </row>
     <row r="26">
@@ -1556,28 +1556,28 @@
         <v>54</v>
       </c>
       <c r="D26" t="n">
-        <v>32851.3</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>57804.9</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>9758</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>40677.9</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>26.04</v>
+        <v>29.106</v>
       </c>
       <c r="I26" t="n">
-        <v>50.399</v>
+        <v>56.306</v>
       </c>
       <c r="J26" t="n">
-        <v>4.637</v>
+        <v>4.071</v>
       </c>
       <c r="K26" t="n">
-        <v>25.737</v>
+        <v>14.401</v>
       </c>
     </row>
     <row r="27">
@@ -1591,28 +1591,28 @@
         <v>56</v>
       </c>
       <c r="D27" t="n">
-        <v>111220.8</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>3489.4</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>896.9</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>795</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>102.353</v>
+        <v>108.571</v>
       </c>
       <c r="I27" t="n">
-        <v>3.578</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.718</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1626,28 +1626,28 @@
         <v>55</v>
       </c>
       <c r="D28" t="n">
-        <v>266525.3</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>6712.7</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>393.3</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>262.3</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>219.122</v>
+        <v>226.283</v>
       </c>
       <c r="I28" t="n">
-        <v>2.388</v>
+        <v>1.228</v>
       </c>
       <c r="J28" t="n">
-        <v>0.225</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1661,25 +1661,25 @@
         <v>57</v>
       </c>
       <c r="D29" t="n">
-        <v>161341.8</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1070.3</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1529.6</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>195.66</v>
+        <v>203.414</v>
       </c>
       <c r="I29" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.455</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -1696,28 +1696,28 @@
         <v>59</v>
       </c>
       <c r="D30" t="n">
-        <v>99472.8</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>48.5</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>233610.6</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2248.6</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>103.683</v>
+        <v>98.369</v>
       </c>
       <c r="I30" t="n">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>208.745</v>
+        <v>210.966</v>
       </c>
       <c r="K30" t="n">
-        <v>3.258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1731,25 +1731,25 @@
         <v>60</v>
       </c>
       <c r="D31" t="n">
-        <v>167810.4</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>2041</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>177.763</v>
+        <v>194.107</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.022</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -1766,25 +1766,25 @@
         <v>61</v>
       </c>
       <c r="D32" t="n">
-        <v>107340.6</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>11926.3</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>131.212</v>
+        <v>159.444</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>13.572</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -1801,25 +1801,25 @@
         <v>62</v>
       </c>
       <c r="D33" t="n">
-        <v>167982.4</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>5818</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>165.832</v>
+        <v>194.669</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>8.994</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -1836,25 +1836,25 @@
         <v>58</v>
       </c>
       <c r="D34" t="n">
-        <v>91677.5</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>4461.5</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>168.076</v>
+        <v>165.207</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.852</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -1871,25 +1871,25 @@
         <v>63</v>
       </c>
       <c r="D35" t="n">
-        <v>68936.7</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>50.4</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>83.024</v>
+        <v>86.394</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.202</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>

--- a/public/data/soil/soil_table_guinea.xlsx
+++ b/public/data/soil/soil_table_guinea.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -716,7 +716,7 @@
         <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>47607</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -751,13 +751,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>64981.9</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1341.6</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>17789.8</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>52418.4</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>475.1</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>627</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>71.6</v>
       </c>
       <c r="H5" t="n">
         <v>171.733</v>
@@ -856,16 +856,16 @@
         <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2733.9</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>7824.4</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1520</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>4775.7</v>
       </c>
       <c r="H6" t="n">
         <v>11.646</v>
@@ -891,13 +891,13 @@
         <v>35</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1013.8</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>58.1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -926,16 +926,16 @@
         <v>37</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>24349.5</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>16591.2</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>297.7</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>671.9</v>
       </c>
       <c r="H8" t="n">
         <v>82.252</v>
@@ -961,16 +961,16 @@
         <v>38</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>8084.3</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>22903.1</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>526.3</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>17939.9</v>
       </c>
       <c r="H9" t="n">
         <v>26.819</v>
@@ -996,13 +996,13 @@
         <v>36</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>30697.6</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>317.8</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>3776.2</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>39</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>32857.3</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>40</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2474.2</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>12131.2</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>17124.8</v>
       </c>
       <c r="H12" t="n">
         <v>23.423</v>
@@ -1101,13 +1101,13 @@
         <v>41</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>8971.4</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>4872.8</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1136,16 +1136,16 @@
         <v>42</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5989.1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>11295.6</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5726.4</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>17185.7</v>
       </c>
       <c r="H14" t="n">
         <v>44.114</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1265.3</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>73056.1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1206,16 +1206,16 @@
         <v>44</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>616.1</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>88181.1</v>
       </c>
       <c r="H16" t="n">
         <v>1.264</v>
@@ -1241,7 +1241,7 @@
         <v>46</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>11358.6</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1276,13 +1276,13 @@
         <v>47</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>38432.4</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>378.9</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>48</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>47357.2</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>501.5</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1346,13 +1346,13 @@
         <v>45</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>65572.1</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>876.6</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>49</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>90374</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>438.9</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1416,16 +1416,16 @@
         <v>51</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>23244.5</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>11322.1</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>841</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>6934.8</v>
       </c>
       <c r="H22" t="n">
         <v>49.877</v>
@@ -1451,10 +1451,10 @@
         <v>50</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>44165.9</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>5466.3</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1486,7 +1486,7 @@
         <v>52</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>47823.7</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1521,16 +1521,16 @@
         <v>53</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>65757</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>6358.6</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>7643.4</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>12019.9</v>
       </c>
       <c r="H25" t="n">
         <v>206.383</v>
@@ -1556,16 +1556,16 @@
         <v>54</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>13164.7</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>13109.6</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>2504</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>8228.4</v>
       </c>
       <c r="H26" t="n">
         <v>29.106</v>
@@ -1591,7 +1591,7 @@
         <v>56</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>34846.7</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1626,10 +1626,10 @@
         <v>55</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>68492.6</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>584.3</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>57</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>60503.5</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1696,13 +1696,13 @@
         <v>59</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>4892.5</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>6495.4</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>60</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>37628.1</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1766,13 +1766,13 @@
         <v>61</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>35654.7</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>584.3</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>62</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>34344.6</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1836,13 +1836,13 @@
         <v>58</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>37854.5</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>60.1</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>63</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>27009.3</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
